--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4290636666666667</v>
+        <v>0.292879</v>
       </c>
       <c r="H2">
-        <v>1.287191</v>
+        <v>0.878637</v>
       </c>
       <c r="I2">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="J2">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.432592</v>
+        <v>0.1124023333333333</v>
       </c>
       <c r="N2">
-        <v>1.297776</v>
+        <v>0.337207</v>
       </c>
       <c r="O2">
-        <v>0.1825161279706709</v>
+        <v>0.03490487583665934</v>
       </c>
       <c r="P2">
-        <v>0.1825161279706708</v>
+        <v>0.03490487583665934</v>
       </c>
       <c r="Q2">
-        <v>0.1856095096906667</v>
+        <v>0.03292028298433333</v>
       </c>
       <c r="R2">
-        <v>1.670485587216</v>
+        <v>0.296282546859</v>
       </c>
       <c r="S2">
-        <v>0.002307580057577802</v>
+        <v>0.0002602323177757798</v>
       </c>
       <c r="T2">
-        <v>0.002307580057577801</v>
+        <v>0.0002602323177757798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4290636666666667</v>
+        <v>0.292879</v>
       </c>
       <c r="H3">
-        <v>1.287191</v>
+        <v>0.878637</v>
       </c>
       <c r="I3">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="J3">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.973711</v>
       </c>
       <c r="O3">
-        <v>0.1369403976359941</v>
+        <v>0.1007904982867776</v>
       </c>
       <c r="P3">
-        <v>0.1369403976359941</v>
+        <v>0.1007904982867776</v>
       </c>
       <c r="Q3">
-        <v>0.1392613373112222</v>
+        <v>0.09505983465633334</v>
       </c>
       <c r="R3">
-        <v>1.253352035801</v>
+        <v>0.855538511907</v>
       </c>
       <c r="S3">
-        <v>0.001731358944412702</v>
+        <v>0.0007514407185312651</v>
       </c>
       <c r="T3">
-        <v>0.001731358944412702</v>
+        <v>0.0007514407185312652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4290636666666667</v>
+        <v>0.292879</v>
       </c>
       <c r="H4">
-        <v>1.287191</v>
+        <v>0.878637</v>
       </c>
       <c r="I4">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="J4">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.612995333333333</v>
+        <v>2.783274666666667</v>
       </c>
       <c r="N4">
-        <v>4.838986</v>
+        <v>8.349824</v>
       </c>
       <c r="O4">
-        <v>0.6805434743933351</v>
+        <v>0.8643046258765631</v>
       </c>
       <c r="P4">
-        <v>0.680543474393335</v>
+        <v>0.8643046258765632</v>
       </c>
       <c r="Q4">
-        <v>0.6920776920362223</v>
+        <v>0.8151627010986667</v>
       </c>
       <c r="R4">
-        <v>6.228699228326001</v>
+        <v>7.336464309888</v>
       </c>
       <c r="S4">
-        <v>0.008604217979449593</v>
+        <v>0.006443798772089051</v>
       </c>
       <c r="T4">
-        <v>0.008604217979449592</v>
+        <v>0.006443798772089052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>79.31082599999999</v>
       </c>
       <c r="I5">
-        <v>0.7790135445677298</v>
+        <v>0.6729737392616156</v>
       </c>
       <c r="J5">
-        <v>0.7790135445677296</v>
+        <v>0.6729737392616155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.432592</v>
+        <v>0.1124023333333333</v>
       </c>
       <c r="N5">
-        <v>1.297776</v>
+        <v>0.337207</v>
       </c>
       <c r="O5">
-        <v>0.1825161279706709</v>
+        <v>0.03490487583665934</v>
       </c>
       <c r="P5">
-        <v>0.1825161279706708</v>
+        <v>0.03490487583665934</v>
       </c>
       <c r="Q5">
-        <v>11.436409613664</v>
+        <v>2.971573966998</v>
       </c>
       <c r="R5">
-        <v>102.927686522976</v>
+        <v>26.744165702982</v>
       </c>
       <c r="S5">
-        <v>0.1421825357912097</v>
+        <v>0.02349006481025905</v>
       </c>
       <c r="T5">
-        <v>0.1421825357912097</v>
+        <v>0.02349006481025905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>79.31082599999999</v>
       </c>
       <c r="I6">
-        <v>0.7790135445677298</v>
+        <v>0.6729737392616156</v>
       </c>
       <c r="J6">
-        <v>0.7790135445677296</v>
+        <v>0.6729737392616155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.973711</v>
       </c>
       <c r="O6">
-        <v>0.1369403976359941</v>
+        <v>0.1007904982867776</v>
       </c>
       <c r="P6">
-        <v>0.1369403976359941</v>
+        <v>0.1007904982867776</v>
       </c>
       <c r="Q6">
         <v>8.580647077254</v>
@@ -818,10 +818,10 @@
         <v>77.225823695286</v>
       </c>
       <c r="S6">
-        <v>0.1066784245569301</v>
+        <v>0.06782935851409415</v>
       </c>
       <c r="T6">
-        <v>0.1066784245569301</v>
+        <v>0.06782935851409415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>79.31082599999999</v>
       </c>
       <c r="I7">
-        <v>0.7790135445677298</v>
+        <v>0.6729737392616156</v>
       </c>
       <c r="J7">
-        <v>0.7790135445677296</v>
+        <v>0.6729737392616155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.612995333333333</v>
+        <v>2.783274666666667</v>
       </c>
       <c r="N7">
-        <v>4.838986</v>
+        <v>8.349824</v>
       </c>
       <c r="O7">
-        <v>0.6805434743933351</v>
+        <v>0.8643046258765631</v>
       </c>
       <c r="P7">
-        <v>0.680543474393335</v>
+        <v>0.8643046258765632</v>
       </c>
       <c r="Q7">
-        <v>42.642664073604</v>
+        <v>73.581270932736</v>
       </c>
       <c r="R7">
-        <v>383.783976662436</v>
+        <v>662.231438394624</v>
       </c>
       <c r="S7">
-        <v>0.53015258421959</v>
+        <v>0.5816543159372625</v>
       </c>
       <c r="T7">
-        <v>0.5301525842195898</v>
+        <v>0.5816543159372624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.070428666666666</v>
+        <v>12.55394366666667</v>
       </c>
       <c r="H8">
-        <v>21.211286</v>
+        <v>37.661831</v>
       </c>
       <c r="I8">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="J8">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.432592</v>
+        <v>0.1124023333333333</v>
       </c>
       <c r="N8">
-        <v>1.297776</v>
+        <v>0.337207</v>
       </c>
       <c r="O8">
-        <v>0.1825161279706709</v>
+        <v>0.03490487583665934</v>
       </c>
       <c r="P8">
-        <v>0.1825161279706708</v>
+        <v>0.03490487583665934</v>
       </c>
       <c r="Q8">
-        <v>3.058610877770667</v>
+        <v>1.411092560668556</v>
       </c>
       <c r="R8">
-        <v>27.527497899936</v>
+        <v>12.699833046017</v>
       </c>
       <c r="S8">
-        <v>0.03802601212188339</v>
+        <v>0.01115457870862451</v>
       </c>
       <c r="T8">
-        <v>0.03802601212188339</v>
+        <v>0.01115457870862451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.070428666666666</v>
+        <v>12.55394366666667</v>
       </c>
       <c r="H9">
-        <v>21.211286</v>
+        <v>37.661831</v>
       </c>
       <c r="I9">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="J9">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.973711</v>
       </c>
       <c r="O9">
-        <v>0.1369403976359941</v>
+        <v>0.1007904982867776</v>
       </c>
       <c r="P9">
-        <v>0.1369403976359941</v>
+        <v>0.1007904982867776</v>
       </c>
       <c r="Q9">
-        <v>2.294851389149555</v>
+        <v>4.074637680537889</v>
       </c>
       <c r="R9">
-        <v>20.653662502346</v>
+        <v>36.671739124841</v>
       </c>
       <c r="S9">
-        <v>0.02853061413465128</v>
+        <v>0.03220969905415214</v>
       </c>
       <c r="T9">
-        <v>0.02853061413465128</v>
+        <v>0.03220969905415215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.070428666666666</v>
+        <v>12.55394366666667</v>
       </c>
       <c r="H10">
-        <v>21.211286</v>
+        <v>37.661831</v>
       </c>
       <c r="I10">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="J10">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.612995333333333</v>
+        <v>2.783274666666667</v>
       </c>
       <c r="N10">
-        <v>4.838986</v>
+        <v>8.349824</v>
       </c>
       <c r="O10">
-        <v>0.6805434743933351</v>
+        <v>0.8643046258765631</v>
       </c>
       <c r="P10">
-        <v>0.680543474393335</v>
+        <v>0.8643046258765632</v>
       </c>
       <c r="Q10">
-        <v>11.40456844399955</v>
+        <v>34.94107337419378</v>
       </c>
       <c r="R10">
-        <v>102.641115995996</v>
+        <v>314.469660367744</v>
       </c>
       <c r="S10">
-        <v>0.1417866721942955</v>
+        <v>0.2762065111672117</v>
       </c>
       <c r="T10">
-        <v>0.1417866721942955</v>
+        <v>0.2762065111672117</v>
       </c>
     </row>
   </sheetData>
